--- a/The links of Baike Baike groups.xlsx
+++ b/The links of Baike Baike groups.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>花果山团队-特色任务</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +81,203 @@
     </r>
   </si>
   <si>
+    <t>【百科文画组】核心成员登记贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5477133436（Finished）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5472209213（Finished）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/task/201655（Finished）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5479194565</t>
+  </si>
+  <si>
+    <t>历史特色（长期）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科历史组2017年10-11月团队考核&amp;福利总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【招募】百科交通组报名专贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/task/203741</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E4%BA%A4%E9%80%9A%E7%BB%84/22198326#1_4</t>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5422478844</t>
+  </si>
+  <si>
+    <t>百科交通组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E5%8E%86%E5%8F%B2%E7%BB%84#4</t>
+  </si>
+  <si>
+    <t>百科历史组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/百科地理组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科地理组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E7%A7%91%E5%AD%A6%E7%BB%84</t>
+  </si>
+  <si>
+    <t>百科科学组</t>
+  </si>
+  <si>
+    <t>【百科诗文社】核心成员登记帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5469773720</t>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5480685069</t>
+  </si>
+  <si>
+    <t>【百科伐木累】团队新人招募帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/3764913841</t>
+  </si>
+  <si>
+    <t>【蝌蚪团吧专贴】百科任务系统及任务评审反馈处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科体育组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/3232724287</t>
+  </si>
+  <si>
+    <t>【招募】百科体育小组报名专贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/task/201775</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the members of Tadpole Team from the follow links</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The links which highlight with red color have finished review and add the members into the file"Baidu Baike administrative accounts"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E6%96%87%E5%AD%A6%E7%BB%84</t>
+  </si>
+  <si>
+    <t>百科文学组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/3895689621</t>
+  </si>
+  <si>
+    <t>【招募】百科文学小组报名专贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【百科军事组】欢迎新人帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5481858791</t>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5484377530</t>
+  </si>
+  <si>
+    <t>【百科军事组】核心成员登记帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5476392635</t>
+  </si>
+  <si>
+    <t>【分类小组】百科地理组新人招募专帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5468392190</t>
+  </si>
+  <si>
+    <t>【分类小组】百科交通组『团队萌新报名贴』</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5468183730</t>
+  </si>
+  <si>
+    <t>【花果山团队】新人报名帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E9%AB%98%E6%A0%A1%E7%BB%84?sefr=enterbtn</t>
+  </si>
+  <si>
+    <t>百科高校组</t>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5474354239</t>
+  </si>
+  <si>
+    <t>【分类小组】ACGN组核心成员登记专帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The edit and audit group of Baidu Baike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E6%B5%81%E8%A1%8C%E6%96%87%E5%8C%96%E5%B0%8F%E5%88%86%E9%98%9F/22243776</t>
+  </si>
+  <si>
+    <t>百科流行文化小分队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流行文化整理</t>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/5467997409</t>
+  </si>
+  <si>
+    <t>Group index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/task/200809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>绘画特色：</t>
     </r>
@@ -96,208 +293,53 @@
       </rPr>
       <t>https://baike.baidu.com/task/202246</t>
     </r>
-  </si>
-  <si>
-    <t>【百科文画组】核心成员登记贴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5477133436（Finished）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5472209213（Finished）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/task/201655（Finished）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5479194565</t>
-  </si>
-  <si>
-    <t>历史特色（长期）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科历史组2017年10-11月团队考核&amp;福利总结</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【招募】百科交通组报名专贴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/task/203741</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E4%BA%A4%E9%80%9A%E7%BB%84/22198326#1_4</t>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5422478844</t>
-  </si>
-  <si>
-    <t>百科交通组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E5%8E%86%E5%8F%B2%E7%BB%84#4</t>
-  </si>
-  <si>
-    <t>百科历史组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/百科地理组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科地理组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E7%A7%91%E5%AD%A6%E7%BB%84</t>
-  </si>
-  <si>
-    <t>百科科学组</t>
-  </si>
-  <si>
-    <t>【百科诗文社】核心成员登记帖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5469773720</t>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5480685069</t>
-  </si>
-  <si>
-    <t>【百科伐木累】团队新人招募帖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/3764913841</t>
-  </si>
-  <si>
-    <t>【蝌蚪团吧专贴】百科任务系统及任务评审反馈处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E4%BD%93%E8%82%B2%E7%BB%84</t>
-  </si>
-  <si>
-    <t>百科体育组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/3232724287</t>
-  </si>
-  <si>
-    <t>【招募】百科体育小组报名专贴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/task/201775</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find the members of Tadpole Team from the follow links</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The links which highlight with red color have finished review and add the members into the file"Baidu Baike administrative accounts"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E6%96%87%E5%AD%A6%E7%BB%84</t>
-  </si>
-  <si>
-    <t>百科文学组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/3895689621</t>
-  </si>
-  <si>
-    <t>【招募】百科文学小组报名专贴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【百科军事组】欢迎新人帖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5481858791</t>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5484377530</t>
-  </si>
-  <si>
-    <t>【百科军事组】核心成员登记帖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5476392635</t>
-  </si>
-  <si>
-    <t>【分类小组】百科地理组新人招募专帖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5468392190</t>
-  </si>
-  <si>
-    <t>【分类小组】百科交通组『团队萌新报名贴』</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5468183730</t>
-  </si>
-  <si>
-    <t>【花果山团队】新人报名帖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E9%AB%98%E6%A0%A1%E7%BB%84?sefr=enterbtn</t>
-  </si>
-  <si>
-    <t>百科高校组</t>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5474354239</t>
-  </si>
-  <si>
-    <t>【分类小组】ACGN组核心成员登记专帖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The edit and audit group of Baidu Baike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BE%E7%A7%91%E6%B5%81%E8%A1%8C%E6%96%87%E5%8C%96%E5%B0%8F%E5%88%86%E9%98%9F/22243776</t>
-  </si>
-  <si>
-    <t>百科流行文化小分队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/task/200809</t>
-  </si>
-  <si>
-    <t>流行文化整理</t>
-  </si>
-  <si>
-    <t>http://tieba.baidu.com/p/5467997409</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科游戏俱乐部</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91%E6%B8%B8%E6%88%8F%E4%BF%B1%E4%B9%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/wikitask/usertask?pagetype=taskinfo&amp;taskid=200692</t>
+  </si>
+  <si>
+    <t>游戏词条目录框架整理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/task/203749</t>
+  </si>
+  <si>
+    <t>小太阳明星娱乐特色</t>
+  </si>
+  <si>
+    <t>小太阳团队影视词条整理</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/task/203762</t>
+  </si>
+  <si>
+    <t>百科小太阳团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花果山团队</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91%EF%BC%9A%E8%8A%B1%E6%9E%9C%E5%B1%B1%E5%9B%A2%E9%98%9F/22371386?fromtitle=%E8%8A%B1%E6%9E%9C%E5%B1%B1&amp;fromid=22371501</t>
   </si>
   <si>
     <t>【公告】群雄逐鹿，风云再起！全新分类小组制度发布啦</t>
-  </si>
-  <si>
-    <t>Group index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【分类小组】2017年12月百科分类小组数据汇总公示</t>
   </si>
 </sst>
 </file>
@@ -398,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +458,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -732,24 +777,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5351BF-D77F-45BA-B95B-D23425E7A69F}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="30.625" customWidth="1"/>
     <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -774,69 +821,69 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="G7" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -844,79 +891,79 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -926,105 +973,155 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>43075</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s">
         <v>56</v>
       </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>43112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A53:F53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1038,7 +1135,10 @@
     <hyperlink ref="B15" r:id="rId8" xr:uid="{389B1017-82C4-4AE3-92D5-531A39DCEA93}"/>
     <hyperlink ref="B30" r:id="rId9" xr:uid="{6D25EBC4-F313-4D2F-BB33-F6507110B69A}"/>
     <hyperlink ref="F32" r:id="rId10" xr:uid="{0577B9F4-AA1A-4BC9-96D9-B843797B718F}"/>
+    <hyperlink ref="B23" r:id="rId11" xr:uid="{CC046923-DE3A-493A-ACC1-37C59828E8FE}"/>
+    <hyperlink ref="B34" r:id="rId12" xr:uid="{4FA07B2A-F808-4330-B2F1-E46C1838F9EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
 </worksheet>
 </file>